--- a/demos/demo03_RARE_template.xlsx
+++ b/demos/demo03_RARE_template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\6_Paper_related\calculate_b_matrix\demos\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{19B022DA-D632-419B-9EC8-959959763E5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1C3B67C4-54F0-4353-BBF7-57A26D99F14E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1776" yWindow="1800" windowWidth="18444" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1452" yWindow="1476" windowWidth="13536" windowHeight="8964" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Gradient_Info" sheetId="1" r:id="rId1"/>
@@ -133,10 +133,10 @@
     <t>z_axis</t>
   </si>
   <si>
-    <t>[20000:10000:60000]</t>
-  </si>
-  <si>
     <t>0: GE/SE/EPI/RARE; 1: SPEN</t>
+  </si>
+  <si>
+    <t>20000:10000:60000</t>
   </si>
 </sst>
 </file>
@@ -975,7 +975,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.4"/>
@@ -1004,7 +1004,7 @@
         <v>0</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="3" spans="1:3" ht="19.5" customHeight="1">
@@ -1023,7 +1023,7 @@
         <v>23</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C4" s="1" t="s">
         <v>22</v>
